--- a/data/trans_bre/P16A09-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,88</t>
+          <t>-1,32; 4,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,94</t>
+          <t>-3,48; 0,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,23</t>
+          <t>-0,74; 2,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,83</t>
+          <t>0,63; 3,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,71; 256,96</t>
+          <t>-48,47; 262,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-90,47; 77,34</t>
+          <t>-88,07; 113,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1303,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,82; 960,18</t>
+          <t>15,37; 824,83</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,46</t>
+          <t>-0,67; 3,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,83</t>
+          <t>-1,34; 3,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,65</t>
+          <t>0,3; 3,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,67</t>
+          <t>0,98; 4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,57; 597,4</t>
+          <t>-54,98; 632,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,96; 262,87</t>
+          <t>-55,73; 317,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 745,83</t>
+          <t>26,53; 684,59</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,49</t>
+          <t>0,15; 8,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 5,59</t>
+          <t>-0,7; 5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,96</t>
+          <t>0,32; 7,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 12,71</t>
+          <t>3,26; 13,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 453,46</t>
+          <t>-9,84; 452,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 342,07</t>
+          <t>-30,89; 360,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,86; 2346,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>128,98; 2275,6</t>
+          <t>108,9; 1891,6</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,49</t>
+          <t>-2,31; 1,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,28</t>
+          <t>-0,79; 2,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,05</t>
+          <t>-1,47; 1,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,3</t>
+          <t>-1,72; 1,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,15; 42,88</t>
+          <t>-44,64; 39,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 138,17</t>
+          <t>-29,75; 129,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,47; 71,7</t>
+          <t>-54,85; 75,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 56,68</t>
+          <t>-55,19; 54,62</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,78</t>
+          <t>-0,22; 4,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,77</t>
+          <t>2,44; 6,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,84</t>
+          <t>1,64; 5,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,17</t>
+          <t>2,23; 6,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 294,13</t>
+          <t>-11,18; 303,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,67; 498,91</t>
+          <t>61,76; 489,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,65; 357,24</t>
+          <t>52,07; 389,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,33; 463,13</t>
+          <t>68,43; 416,17</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,96</t>
+          <t>4,95; 8,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 11,78</t>
+          <t>7,92; 11,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,13</t>
+          <t>4,17; 7,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 8,98</t>
+          <t>6,19; 8,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,07</t>
+          <t>1,22; 3,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,83</t>
+          <t>2,75; 4,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,18</t>
+          <t>1,64; 3,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,26</t>
+          <t>2,2; 4,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,47; 120,38</t>
+          <t>34,72; 124,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>114,54; 283,87</t>
+          <t>111,74; 269,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100,82; 304,82</t>
+          <t>100,6; 300,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>113,68; 300,86</t>
+          <t>107,5; 297,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A09-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
